--- a/Problems_2_Alina.xlsx
+++ b/Problems_2_Alina.xlsx
@@ -186,44 +186,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>73006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>483189</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>48093</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4046220" y="5559406"/>
-          <a:ext cx="3752169" cy="1438127"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>594359</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -243,7 +205,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -263,52 +225,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>318954</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>541632</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>13838</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="928554" y="5455919"/>
-          <a:ext cx="2051478" cy="1690239"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>388619</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>124578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190310</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -319,7 +243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -340,13 +264,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342768</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>573278</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -357,7 +281,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -377,19 +301,95 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>29106</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>3847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>252582</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>145539</xdr:rowOff>
+      <xdr:colOff>414514</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>120782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920240" y="22498087"/>
+          <a:ext cx="4590274" cy="2860135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591918</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1097280" y="2373089"/>
+          <a:ext cx="4371438" cy="2474318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254986</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -402,8 +402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1859280" y="14293746"/>
-          <a:ext cx="4489302" cy="3042513"/>
+          <a:off x="670560" y="7766273"/>
+          <a:ext cx="3851626" cy="2040667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -414,20 +414,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>373379</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>86037</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>156811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>366892</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>134101</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>405088</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -440,8 +440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1592579" y="2463477"/>
-          <a:ext cx="3651113" cy="2425504"/>
+          <a:off x="4975860" y="7837771"/>
+          <a:ext cx="5182828" cy="2024893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -452,20 +452,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>3847</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>20942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>414514</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>120782</xdr:rowOff>
+      <xdr:colOff>538466</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="13" name="Рисунок 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -478,8 +478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1920240" y="22498087"/>
-          <a:ext cx="4590274" cy="2860135"/>
+          <a:off x="1455420" y="17028782"/>
+          <a:ext cx="5179046" cy="3072778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,95 +878,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>7</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>8</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>9</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C112" s="3" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C114" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C113" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C117" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C116" s="3" t="s">
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="D118" s="3"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>10</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C121" s="3" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C123" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C122" s="3" t="s">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C124" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D124" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
